--- a/Copy of Copy of WORKUP FOR ALL ATL SIEVED SEDIMENTS.xlsx
+++ b/Copy of Copy of WORKUP FOR ALL ATL SIEVED SEDIMENTS.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairesheppard/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B257C34-73AA-AA44-943E-A333CC0AD092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2FDB83-5F0E-E440-AA9C-CA3370EF4462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="17680" windowHeight="16980" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="920" windowWidth="28860" windowHeight="16800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data and calcs" sheetId="1" r:id="rId1"/>
     <sheet name="COMPILED DATASET" sheetId="2" r:id="rId2"/>
-    <sheet name="omegac_workup" sheetId="4" r:id="rId3"/>
-    <sheet name="foram_cocco_workup" sheetId="3" r:id="rId4"/>
-    <sheet name="station 3 ODV temps" sheetId="9" r:id="rId5"/>
-    <sheet name="station 4 ODV temps" sheetId="10" r:id="rId6"/>
-    <sheet name="station 6 ODV temps" sheetId="11" r:id="rId7"/>
-    <sheet name="station 8 ODV temps" sheetId="12" r:id="rId8"/>
-    <sheet name="station 9 ODV temps" sheetId="13" r:id="rId9"/>
-    <sheet name="station 10 ODV temps" sheetId="5" r:id="rId10"/>
-    <sheet name="station 11 ODV temps" sheetId="6" r:id="rId11"/>
-    <sheet name="station 12 ODV temps" sheetId="7" r:id="rId12"/>
-    <sheet name="station 16 ODV temps" sheetId="14" r:id="rId13"/>
-    <sheet name="station 16.2 ODV temps" sheetId="15" r:id="rId14"/>
-    <sheet name="station 18 ODV temps" sheetId="8" r:id="rId15"/>
+    <sheet name="foram_cocco_workup" sheetId="3" r:id="rId3"/>
+    <sheet name="omegac_workup" sheetId="4" r:id="rId4"/>
+    <sheet name="station 1 ODV" sheetId="16" r:id="rId5"/>
+    <sheet name="station 3 ODV temps" sheetId="9" r:id="rId6"/>
+    <sheet name="station 4 ODV temps" sheetId="10" r:id="rId7"/>
+    <sheet name="station 6 ODV temps" sheetId="11" r:id="rId8"/>
+    <sheet name="station 8 ODV temps" sheetId="12" r:id="rId9"/>
+    <sheet name="station 9 ODV temps" sheetId="13" r:id="rId10"/>
+    <sheet name="station 10 ODV temps" sheetId="5" r:id="rId11"/>
+    <sheet name="station 11 ODV temps" sheetId="6" r:id="rId12"/>
+    <sheet name="station 12 ODV temps" sheetId="7" r:id="rId13"/>
+    <sheet name="station 16 ODV temps" sheetId="14" r:id="rId14"/>
+    <sheet name="station 16.2 ODV temps" sheetId="15" r:id="rId15"/>
+    <sheet name="station 18 ODV temps" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="204">
   <si>
     <t xml:space="preserve">               Start Time</t>
   </si>
@@ -598,9 +599,6 @@
     <t>d13C cocco</t>
   </si>
   <si>
-    <t>omega C</t>
-  </si>
-  <si>
     <t>Lon</t>
   </si>
   <si>
@@ -653,6 +651,15 @@
   </si>
   <si>
     <t xml:space="preserve">temp at depth </t>
+  </si>
+  <si>
+    <t>omega C at depth</t>
+  </si>
+  <si>
+    <t>Omega~_C(P,T,ALK,DIC)</t>
+  </si>
+  <si>
+    <t>omegac at surface</t>
   </si>
 </sst>
 </file>
@@ -4957,355 +4964,332 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01399794-8079-6D49-86EF-8089F6FC4CEF}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E8D0-F087-444F-B661-911C153BE102}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
-        <v>688</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2730</v>
       </c>
       <c r="C2">
-        <v>62.923333329999998</v>
+        <v>59.753533330000003</v>
       </c>
       <c r="D2">
-        <v>-6.9394333330000002</v>
+        <v>-19.921533329999999</v>
       </c>
       <c r="E2">
-        <v>9.4960000000000004</v>
+        <v>8.1466999999999992</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>10.9</v>
       </c>
       <c r="G2">
-        <v>63.45</v>
+        <v>59.982999999999997</v>
       </c>
       <c r="H2">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>688</v>
-      </c>
-      <c r="C3">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D3">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>-19.968</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-19.997</v>
+      </c>
+      <c r="J2" s="9">
+        <v>59.497</v>
+      </c>
+      <c r="K2">
+        <v>4.0925700000000003</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3">
-        <v>9.4689999999999994</v>
+        <v>8.1448</v>
       </c>
       <c r="F3">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>63.45</v>
-      </c>
-      <c r="H3">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>688</v>
-      </c>
-      <c r="C4">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D4">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>101.099998</v>
+      </c>
+      <c r="K3">
+        <v>3.2658499999999999</v>
+      </c>
+      <c r="L3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4">
-        <v>8.1859999999999999</v>
+        <v>8.0808999999999997</v>
       </c>
       <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>63.45</v>
-      </c>
-      <c r="H4">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>688</v>
-      </c>
-      <c r="C5">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D5">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>201.10000600000001</v>
+      </c>
+      <c r="K4">
+        <v>3.1559200000000001</v>
+      </c>
+      <c r="L4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E5">
-        <v>7.7460000000000004</v>
+        <v>7.7637999999999998</v>
       </c>
       <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>63.45</v>
-      </c>
-      <c r="H5">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>688</v>
-      </c>
-      <c r="C6">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D6">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>304.10000600000001</v>
+      </c>
+      <c r="K5">
+        <v>2.9151799999999999</v>
+      </c>
+      <c r="L5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6">
-        <v>6.9530000000000003</v>
+        <v>7.7428999999999997</v>
       </c>
       <c r="F6">
-        <v>198</v>
-      </c>
-      <c r="G6">
-        <v>63.45</v>
-      </c>
-      <c r="H6">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>688</v>
-      </c>
-      <c r="C7">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D7">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>396.10000600000001</v>
+      </c>
+      <c r="K6">
+        <v>2.80105</v>
+      </c>
+      <c r="L6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>5.01</v>
+        <v>7.4185999999999996</v>
       </c>
       <c r="F7">
-        <v>297</v>
-      </c>
-      <c r="G7">
-        <v>63.45</v>
-      </c>
-      <c r="H7">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>688</v>
-      </c>
-      <c r="C8">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D8">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>500.89999399999999</v>
+      </c>
+      <c r="K7">
+        <v>2.6253700000000002</v>
+      </c>
+      <c r="L7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8">
-        <v>2.2160000000000002</v>
+        <v>7.19</v>
       </c>
       <c r="F8">
-        <v>397</v>
-      </c>
-      <c r="G8">
-        <v>63.45</v>
-      </c>
-      <c r="H8">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>688</v>
-      </c>
-      <c r="C9">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D9">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>703.59997599999997</v>
+      </c>
+      <c r="K8">
+        <v>2.35012</v>
+      </c>
+      <c r="L8">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9">
-        <v>0.10299999999999999</v>
+        <v>6.4664999999999999</v>
       </c>
       <c r="F9">
-        <v>592</v>
-      </c>
-      <c r="G9">
-        <v>63.45</v>
-      </c>
-      <c r="H9">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
-        <v>688</v>
-      </c>
-      <c r="C10">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D10">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>851.70001200000002</v>
+      </c>
+      <c r="K9">
+        <v>2.0998999999999999</v>
+      </c>
+      <c r="L9">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10">
-        <v>-0.33</v>
+        <v>5.4884000000000004</v>
       </c>
       <c r="F10">
-        <v>785</v>
-      </c>
-      <c r="G10">
-        <v>63.45</v>
-      </c>
-      <c r="H10">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>688</v>
-      </c>
-      <c r="C11">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D11">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>1002.700012</v>
+      </c>
+      <c r="K10">
+        <v>1.99146</v>
+      </c>
+      <c r="L10">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
-        <v>-0.52600000000000002</v>
+        <v>4.78</v>
       </c>
       <c r="F11">
-        <v>977</v>
-      </c>
-      <c r="G11">
-        <v>63.45</v>
-      </c>
-      <c r="H11">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>688</v>
-      </c>
-      <c r="C12">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D12">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>1151.599976</v>
+      </c>
+      <c r="K11">
+        <v>1.87175</v>
+      </c>
+      <c r="L11">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>-0.67900000000000005</v>
+        <v>4.2595000000000001</v>
       </c>
       <c r="F12">
-        <v>1173</v>
-      </c>
-      <c r="G12">
-        <v>63.45</v>
-      </c>
-      <c r="H12">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>688</v>
-      </c>
-      <c r="C13">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D13">
-        <v>-6.9394333330000002</v>
-      </c>
+        <v>1299.5</v>
+      </c>
+      <c r="K12">
+        <v>1.6577200000000001</v>
+      </c>
+      <c r="L12">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>-0.72599999999999998</v>
+        <v>3.9011999999999998</v>
       </c>
       <c r="F13">
-        <v>1272</v>
-      </c>
-      <c r="G13">
-        <v>63.45</v>
-      </c>
-      <c r="H13">
-        <v>-6.9160000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="5"/>
+        <v>1501.400024</v>
+      </c>
+      <c r="K13">
+        <v>1.3162199999999999</v>
+      </c>
+      <c r="L13">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="F14">
+        <v>1897.6999510000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>3.5455000000000001</v>
+      </c>
+      <c r="F15">
+        <v>2002.8000489999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>3.5266999999999999</v>
+      </c>
+      <c r="F16">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>3.4807999999999999</v>
+      </c>
+      <c r="F17">
+        <v>2202.1000979999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>3.3843999999999999</v>
+      </c>
+      <c r="F18">
+        <v>2299.1999510000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>3.2648000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2401.1999510000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>3.149</v>
+      </c>
+      <c r="F20">
+        <v>2511.8999020000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>2.9975000000000001</v>
+      </c>
+      <c r="F21">
+        <v>2563.8999020000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>2.7932999999999999</v>
+      </c>
+      <c r="F22">
+        <v>2612.8000489999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>2.6789000000000001</v>
+      </c>
+      <c r="F23">
+        <v>2660.8000489999999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>2.6103000000000001</v>
+      </c>
+      <c r="F24">
+        <v>2713.6999510000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5313,665 +5297,421 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7618D2-9C26-3249-B655-4CD9A7164AA1}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01399794-8079-6D49-86EF-8089F6FC4CEF}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>688</v>
+      </c>
+      <c r="C2">
+        <v>62.923333329999998</v>
+      </c>
+      <c r="D2">
+        <v>-6.9394333330000002</v>
+      </c>
+      <c r="E2">
+        <v>9.4960000000000004</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>63.45</v>
+      </c>
+      <c r="H2">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-7.8760000000000003</v>
+      </c>
+      <c r="J2" s="9">
+        <v>61.323999999999998</v>
+      </c>
+      <c r="K2">
+        <v>3.0931199999999999</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>688</v>
+      </c>
+      <c r="C3">
+        <v>62.923333329999998</v>
+      </c>
+      <c r="D3">
+        <v>-6.9394333330000002</v>
+      </c>
+      <c r="E3">
+        <v>9.4689999999999994</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>63.45</v>
+      </c>
+      <c r="H3">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K3">
+        <v>2.9041299999999999</v>
+      </c>
+      <c r="L3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>688</v>
+      </c>
+      <c r="C4">
+        <v>62.923333329999998</v>
+      </c>
+      <c r="D4">
+        <v>-6.9394333330000002</v>
+      </c>
+      <c r="E4">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>63.45</v>
+      </c>
+      <c r="H4">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K4">
+        <v>2.7689900000000001</v>
+      </c>
+      <c r="L4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>688</v>
+      </c>
+      <c r="C5">
+        <v>62.923333329999998</v>
+      </c>
+      <c r="D5">
+        <v>-6.9394333330000002</v>
+      </c>
+      <c r="E5">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>63.45</v>
+      </c>
+      <c r="H5">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K5">
+        <v>2.7234699999999998</v>
+      </c>
+      <c r="L5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>688</v>
+      </c>
+      <c r="C6">
+        <v>62.923333329999998</v>
+      </c>
+      <c r="D6">
+        <v>-6.9394333330000002</v>
+      </c>
+      <c r="E6">
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="F6">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C2">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D2">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E2">
-        <v>4.835</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H2">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C3">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D3">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E3">
-        <v>4.7759999999999998</v>
-      </c>
-      <c r="F3">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H3">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C4">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D4">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E4">
-        <v>4.6760000000000002</v>
-      </c>
-      <c r="F4">
-        <v>71</v>
-      </c>
-      <c r="G4">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H4">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C5">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D5">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E5">
-        <v>4.0960000000000001</v>
-      </c>
-      <c r="F5">
-        <v>111</v>
-      </c>
-      <c r="G5">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H5">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C6">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D6">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E6">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="F6">
-        <v>161</v>
-      </c>
       <c r="G6">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H6">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K6">
+        <v>2.3538700000000001</v>
+      </c>
+      <c r="L6">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C7">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D7">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E7">
-        <v>2.9380000000000002</v>
+        <v>5.01</v>
       </c>
       <c r="F7">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="G7">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H7">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K7">
+        <v>1.9407099999999999</v>
+      </c>
+      <c r="L7">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C8">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D8">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E8">
-        <v>2.2440000000000002</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="F8">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="G8">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H8">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K8">
+        <v>1.94557</v>
+      </c>
+      <c r="L8">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C9">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D9">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E9">
-        <v>1.7070000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F9">
-        <v>339</v>
+        <v>592</v>
       </c>
       <c r="G9">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H9">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+      <c r="K9">
+        <v>1.91717</v>
+      </c>
+      <c r="L9">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C10">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D10">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E10">
-        <v>1.129</v>
+        <v>-0.33</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>785</v>
       </c>
       <c r="G10">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H10">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C11">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D11">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E11">
-        <v>0.40899999999999997</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="F11">
-        <v>475</v>
+        <v>977</v>
       </c>
       <c r="G11">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H11">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C12">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D12">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E12">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="F12">
-        <v>549</v>
+        <v>1173</v>
       </c>
       <c r="G12">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H12">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-6.9160000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>2740</v>
+        <v>688</v>
       </c>
       <c r="C13">
-        <v>64.954033330000001</v>
+        <v>62.923333329999998</v>
       </c>
       <c r="D13">
-        <v>0.79323333330000001</v>
+        <v>-6.9394333330000002</v>
       </c>
       <c r="E13">
-        <v>-0.16700000000000001</v>
+        <v>-0.72599999999999998</v>
       </c>
       <c r="F13">
-        <v>648</v>
+        <v>1272</v>
       </c>
       <c r="G13">
-        <v>64.885000000000005</v>
+        <v>63.45</v>
       </c>
       <c r="H13">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C14">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D14">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E14">
-        <v>-0.40799999999999997</v>
-      </c>
-      <c r="F14">
-        <v>797</v>
-      </c>
-      <c r="G14">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H14">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C15">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D15">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E15">
-        <v>-0.57499999999999996</v>
-      </c>
-      <c r="F15">
-        <v>947</v>
-      </c>
-      <c r="G15">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H15">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C16">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D16">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E16">
-        <v>-0.67500000000000004</v>
-      </c>
-      <c r="F16">
-        <v>1096</v>
-      </c>
-      <c r="G16">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H16">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C17">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D17">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E17">
-        <v>-0.76200000000000001</v>
-      </c>
-      <c r="F17">
-        <v>1246</v>
-      </c>
-      <c r="G17">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H17">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C18">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D18">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E18">
-        <v>-0.82299999999999995</v>
-      </c>
-      <c r="F18">
-        <v>1394</v>
-      </c>
-      <c r="G18">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H18">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C19">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D19">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E19">
-        <v>-0.876</v>
-      </c>
-      <c r="F19">
-        <v>1594</v>
-      </c>
-      <c r="G19">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H19">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C20">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D20">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E20">
-        <v>-0.90900000000000003</v>
-      </c>
-      <c r="F20">
-        <v>1792</v>
-      </c>
-      <c r="G20">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H20">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C21">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D21">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E21">
-        <v>-0.93</v>
-      </c>
-      <c r="F21">
-        <v>2040</v>
-      </c>
-      <c r="G21">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H21">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C22">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D22">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E22">
-        <v>-0.93500000000000005</v>
-      </c>
-      <c r="F22">
-        <v>2287</v>
-      </c>
-      <c r="G22">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H22">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C23">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D23">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E23">
-        <v>-0.92100000000000004</v>
-      </c>
-      <c r="F23">
-        <v>2535</v>
-      </c>
-      <c r="G23">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H23">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C24">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D24">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E24">
-        <v>-0.90700000000000003</v>
-      </c>
-      <c r="F24">
-        <v>2730</v>
-      </c>
-      <c r="G24">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H24">
-        <v>-0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C25">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D25">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E25">
-        <v>-0.89600000000000002</v>
-      </c>
-      <c r="F25">
-        <v>2862</v>
-      </c>
-      <c r="G25">
-        <v>64.885000000000005</v>
-      </c>
-      <c r="H25">
-        <v>-0.91300000000000003</v>
-      </c>
+        <v>-6.9160000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5979,411 +5719,833 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD3EEE5-A10D-9942-A68D-67F3E300786A}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7618D2-9C26-3249-B655-4CD9A7164AA1}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C2">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D2">
+        <v>0.79323333330000001</v>
+      </c>
+      <c r="E2">
+        <v>4.835</v>
+      </c>
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
-        <v>1060</v>
-      </c>
-      <c r="C2">
-        <v>67.006299999999996</v>
-      </c>
-      <c r="D2">
-        <v>7.6499333329999999</v>
-      </c>
-      <c r="E2">
-        <v>7.5140000000000002</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-3.3370000000000002</v>
+      </c>
+      <c r="J2" s="9">
+        <v>67.686999999999998</v>
+      </c>
+      <c r="K2">
+        <v>4.2640399999999996</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>66.001000000000005</v>
-      </c>
-      <c r="H2">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>12</v>
-      </c>
       <c r="B3" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C3">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D3">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E3">
-        <v>7.5640000000000001</v>
+        <v>4.7759999999999998</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H3">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K3">
+        <v>4.2269500000000004</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C4">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D4">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E4">
-        <v>7.516</v>
+        <v>4.6760000000000002</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H4">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K4">
+        <v>4.1310399999999996</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C5">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D5">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E5">
-        <v>7.5380000000000003</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="F5">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="G5">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H5">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K5">
+        <v>3.9959899999999999</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C6">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D6">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E6">
-        <v>7.7039999999999997</v>
+        <v>3.4929999999999999</v>
       </c>
       <c r="F6">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="G6">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H6">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K6">
+        <v>3.76206</v>
+      </c>
+      <c r="L6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C7">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D7">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E7">
-        <v>7.327</v>
+        <v>2.9380000000000002</v>
       </c>
       <c r="F7">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G7">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H7">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K7">
+        <v>3.5862599999999998</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C8">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D8">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E8">
-        <v>6.8070000000000004</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="F8">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="G8">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H8">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K8">
+        <v>3.2065199999999998</v>
+      </c>
+      <c r="L8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C9">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D9">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E9">
-        <v>6.5359999999999996</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="F9">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="G9">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H9">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K9">
+        <v>2.9763999999999999</v>
+      </c>
+      <c r="L9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C10">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D10">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E10">
-        <v>6.2060000000000004</v>
+        <v>1.129</v>
       </c>
       <c r="F10">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="G10">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H10">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K10">
+        <v>2.93696</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>1060</v>
+        <v>2740</v>
       </c>
       <c r="C11">
-        <v>67.006299999999996</v>
+        <v>64.954033330000001</v>
       </c>
       <c r="D11">
-        <v>7.6499333329999999</v>
+        <v>0.79323333330000001</v>
       </c>
       <c r="E11">
-        <v>4.7450000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="F11">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="G11">
-        <v>66.001000000000005</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="H11">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K11">
+        <v>2.53661</v>
+      </c>
+      <c r="L11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C12">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D12">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E12">
-        <v>2.7639999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F12">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="G12">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H12">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K12">
+        <v>2.38036</v>
+      </c>
+      <c r="L12">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C13">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D13">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E13">
-        <v>0.873</v>
+        <v>-0.16700000000000001</v>
       </c>
       <c r="F13">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+      <c r="G13">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H13">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K13">
+        <v>2.2063600000000001</v>
+      </c>
+      <c r="L13">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C14">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D14">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E14">
-        <v>9.4299999999999995E-2</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="F14">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+      <c r="G14">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H14">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K14">
+        <v>2.1234299999999999</v>
+      </c>
+      <c r="L14">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C15">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D15">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E15">
-        <v>-0.17610000000000001</v>
+        <v>-0.57499999999999996</v>
       </c>
       <c r="F15">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>947</v>
+      </c>
+      <c r="G15">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H15">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K15">
+        <v>2.0558399999999999</v>
+      </c>
+      <c r="L15">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C16">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D16">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E16">
-        <v>-0.38640000000000002</v>
+        <v>-0.67500000000000004</v>
       </c>
       <c r="F16">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1096</v>
+      </c>
+      <c r="G16">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H16">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K16">
+        <v>2.00197</v>
+      </c>
+      <c r="L16">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C17">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D17">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E17">
-        <v>-0.50039999999999996</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="F17">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1246</v>
+      </c>
+      <c r="G17">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H17">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K17">
+        <v>1.9341699999999999</v>
+      </c>
+      <c r="L17">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C18">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D18">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E18">
-        <v>-0.59150000000000003</v>
+        <v>-0.82299999999999995</v>
       </c>
       <c r="F18">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1394</v>
+      </c>
+      <c r="G18">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H18">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K18">
+        <v>1.8831800000000001</v>
+      </c>
+      <c r="L18">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C19">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D19">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E19">
-        <v>-0.65849999999999997</v>
+        <v>-0.876</v>
       </c>
       <c r="F19">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1594</v>
+      </c>
+      <c r="G19">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H19">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K19">
+        <v>1.8087</v>
+      </c>
+      <c r="L19">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C20">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D20">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E20">
-        <v>-0.72860000000000003</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="F20">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1792</v>
+      </c>
+      <c r="G20">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H20">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K20">
+        <v>1.4449700000000001</v>
+      </c>
+      <c r="L20">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C21">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D21">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E21">
-        <v>-0.77010000000000001</v>
+        <v>-0.93</v>
       </c>
       <c r="F21">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2040</v>
+      </c>
+      <c r="G21">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H21">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K21">
+        <v>1.3161799999999999</v>
+      </c>
+      <c r="L21">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C22">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D22">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E22">
-        <v>-0.80430000000000001</v>
+        <v>-0.93500000000000005</v>
       </c>
       <c r="F22">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2287</v>
+      </c>
+      <c r="G22">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H22">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K22">
+        <v>1.1229800000000001</v>
+      </c>
+      <c r="L22">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C23">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D23">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E23">
-        <v>-0.86409999999999998</v>
+        <v>-0.92100000000000004</v>
       </c>
       <c r="F23">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2535</v>
+      </c>
+      <c r="G23">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H23">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K23">
+        <v>1.1066400000000001</v>
+      </c>
+      <c r="L23">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C24">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D24">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E24">
-        <v>-0.89349999999999996</v>
+        <v>-0.90700000000000003</v>
       </c>
       <c r="F24">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2730</v>
+      </c>
+      <c r="G24">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H24">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K24">
+        <v>1.09138</v>
+      </c>
+      <c r="L24">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C25">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D25">
+        <v>0.79323333330000001</v>
+      </c>
       <c r="E25">
-        <v>-0.90959999999999996</v>
+        <v>-0.89600000000000002</v>
       </c>
       <c r="F25">
-        <v>2167</v>
+        <v>2862</v>
+      </c>
+      <c r="G25">
+        <v>64.885000000000005</v>
+      </c>
+      <c r="H25">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="K25">
+        <v>1.0833600000000001</v>
+      </c>
+      <c r="L25">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1.0715600000000001</v>
+      </c>
+      <c r="L26">
+        <v>3697</v>
       </c>
     </row>
   </sheetData>
@@ -6392,193 +6554,573 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B05808-B3ED-E847-9675-0461F9301C90}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD3EEE5-A10D-9942-A68D-67F3E300786A}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C2">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D2">
+        <v>7.6499333329999999</v>
+      </c>
+      <c r="E2">
+        <v>7.5140000000000002</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H2">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="J2" s="9">
+        <v>69.997</v>
+      </c>
+      <c r="K2">
+        <v>4.22553</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C3">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D3">
+        <v>7.6499333329999999</v>
+      </c>
+      <c r="E3">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H3">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K3">
+        <v>4.1357600000000003</v>
+      </c>
+      <c r="L3">
         <v>16</v>
       </c>
-      <c r="B2" s="5">
-        <v>1132</v>
-      </c>
-      <c r="C2">
-        <v>76.856700000000004</v>
-      </c>
-      <c r="D2">
-        <v>12.198449999999999</v>
-      </c>
-      <c r="E2">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>76.671000000000006</v>
-      </c>
-      <c r="H2">
-        <v>12.101000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3">
-        <v>3.1989999999999998</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C4">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D4">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E4">
-        <v>3.1859999999999999</v>
+        <v>7.516</v>
       </c>
       <c r="F4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H4">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K4">
+        <v>4.0460399999999996</v>
+      </c>
+      <c r="L4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C5">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D5">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E5">
-        <v>3.0659999999999998</v>
+        <v>7.5380000000000003</v>
       </c>
       <c r="F5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="G5">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H5">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K5">
+        <v>4.1362699999999997</v>
+      </c>
+      <c r="L5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C6">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D6">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E6">
-        <v>2.3130000000000002</v>
+        <v>7.7039999999999997</v>
       </c>
       <c r="F6">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="G6">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H6">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K6">
+        <v>3.86104</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C7">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D7">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E7">
-        <v>2.319</v>
+        <v>7.327</v>
       </c>
       <c r="F7">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="G7">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H7">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K7">
+        <v>3.2289599999999998</v>
+      </c>
+      <c r="L7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C8">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D8">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E8">
-        <v>2.2130000000000001</v>
+        <v>6.8070000000000004</v>
       </c>
       <c r="F8">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="G8">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H8">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K8">
+        <v>3.1006100000000001</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C9">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D9">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E9">
-        <v>2.1219999999999999</v>
+        <v>6.5359999999999996</v>
       </c>
       <c r="F9">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="G9">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H9">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K9">
+        <v>2.9993699999999999</v>
+      </c>
+      <c r="L9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C10">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D10">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E10">
-        <v>2.093</v>
+        <v>6.2060000000000004</v>
       </c>
       <c r="F10">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="G10">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H10">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K10">
+        <v>2.9016299999999999</v>
+      </c>
+      <c r="L10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C11">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D11">
+        <v>7.6499333329999999</v>
+      </c>
       <c r="E11">
-        <v>1.925</v>
+        <v>4.7450000000000001</v>
       </c>
       <c r="F11">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="G11">
+        <v>66.001000000000005</v>
+      </c>
+      <c r="H11">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K11">
+        <v>2.8594200000000001</v>
+      </c>
+      <c r="L11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>1.0589999999999999</v>
+        <v>2.7639999999999998</v>
       </c>
       <c r="F12">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="K12">
+        <v>2.8594400000000002</v>
+      </c>
+      <c r="L12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>0.14199999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="F13">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="K13">
+        <v>2.84579</v>
+      </c>
+      <c r="L13">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <v>-0.252</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="F14">
+        <v>690</v>
+      </c>
+      <c r="K14">
+        <v>2.8122600000000002</v>
+      </c>
+      <c r="L14">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>-0.17610000000000001</v>
+      </c>
+      <c r="F15">
+        <v>788</v>
+      </c>
+      <c r="K15">
+        <v>2.50061</v>
+      </c>
+      <c r="L15">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>-0.38640000000000002</v>
+      </c>
+      <c r="F16">
         <v>891</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <v>-0.60299999999999998</v>
-      </c>
-      <c r="F15">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>-0.83799999999999997</v>
-      </c>
-      <c r="F16">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>2.46021</v>
+      </c>
+      <c r="L16">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
-        <v>-0.96599999999999997</v>
+        <v>-0.50039999999999996</v>
       </c>
       <c r="F17">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+        <v>986</v>
+      </c>
+      <c r="K17">
+        <v>2.3024200000000001</v>
+      </c>
+      <c r="L17">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>-0.997</v>
+        <v>-0.59150000000000003</v>
       </c>
       <c r="F18">
-        <v>1536</v>
+        <v>1086</v>
+      </c>
+      <c r="K18">
+        <v>2.0686100000000001</v>
+      </c>
+      <c r="L18">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>-0.65849999999999997</v>
+      </c>
+      <c r="F19">
+        <v>1183</v>
+      </c>
+      <c r="K19">
+        <v>2.1915100000000001</v>
+      </c>
+      <c r="L19">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>-0.72860000000000003</v>
+      </c>
+      <c r="F20">
+        <v>1282</v>
+      </c>
+      <c r="K20">
+        <v>1.7968299999999999</v>
+      </c>
+      <c r="L20">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>-0.77010000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1381</v>
+      </c>
+      <c r="K21">
+        <v>1.6861200000000001</v>
+      </c>
+      <c r="L21">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>-0.80430000000000001</v>
+      </c>
+      <c r="F22">
+        <v>1478</v>
+      </c>
+      <c r="K22">
+        <v>1.5703400000000001</v>
+      </c>
+      <c r="L22">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>-0.86409999999999998</v>
+      </c>
+      <c r="F23">
+        <v>1725</v>
+      </c>
+      <c r="K23">
+        <v>1.4760599999999999</v>
+      </c>
+      <c r="L23">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>-0.89349999999999996</v>
+      </c>
+      <c r="F24">
+        <v>1969</v>
+      </c>
+      <c r="K24">
+        <v>1.3794299999999999</v>
+      </c>
+      <c r="L24">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>-0.90959999999999996</v>
+      </c>
+      <c r="F25">
+        <v>2167</v>
+      </c>
+      <c r="K25">
+        <v>1.2017199999999999</v>
+      </c>
+      <c r="L25">
+        <v>3218</v>
       </c>
     </row>
   </sheetData>
@@ -6587,225 +7129,287 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803EEAA3-A3E1-CF4A-ADE8-68220A086FFC}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B05808-B3ED-E847-9675-0461F9301C90}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="H1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5">
-        <v>209</v>
+        <v>1132</v>
       </c>
       <c r="C2">
-        <v>77.233000000000004</v>
+        <v>76.856700000000004</v>
       </c>
       <c r="D2">
-        <v>13.0616</v>
+        <v>12.198449999999999</v>
       </c>
       <c r="E2">
-        <v>4.5490000000000004</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F2">
-        <v>4.07</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>76.671000000000006</v>
       </c>
       <c r="H2">
-        <v>13.002000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.101000000000001</v>
+      </c>
+      <c r="I2" s="9">
+        <v>8.8330000000000002</v>
+      </c>
+      <c r="J2" s="9">
+        <v>78.5</v>
+      </c>
+      <c r="K2">
+        <v>4.1460400000000002</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3">
-        <v>4.548</v>
+        <v>3.1989999999999998</v>
       </c>
       <c r="F3">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3">
+        <v>4.1043200000000004</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4">
-        <v>4.6470000000000002</v>
+        <v>3.1859999999999999</v>
       </c>
       <c r="F4">
-        <v>10.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4">
+        <v>4.15794</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E5">
-        <v>4.59</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="F5">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="K5">
+        <v>3.7181700000000002</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6">
-        <v>4.7069999999999999</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="F6">
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="K6">
+        <v>3.09409</v>
+      </c>
+      <c r="L6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>4.6539999999999999</v>
+        <v>2.319</v>
       </c>
       <c r="F7">
-        <v>14.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="K7">
+        <v>2.90625</v>
+      </c>
+      <c r="L7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8">
-        <v>4.7510000000000003</v>
+        <v>2.2130000000000001</v>
       </c>
       <c r="F8">
-        <v>24.030000999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="K8">
+        <v>2.8462999999999998</v>
+      </c>
+      <c r="L8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9">
-        <v>4.7910000000000004</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="F9">
-        <v>24.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="K9">
+        <v>2.7038199999999999</v>
+      </c>
+      <c r="L9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10">
-        <v>4.1680000000000001</v>
+        <v>2.093</v>
       </c>
       <c r="F10">
-        <v>29.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="K10">
+        <v>2.5370400000000002</v>
+      </c>
+      <c r="L10">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
-        <v>4.2140000000000004</v>
+        <v>1.925</v>
       </c>
       <c r="F11">
-        <v>29.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="K11">
+        <v>2.2595900000000002</v>
+      </c>
+      <c r="L11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>4.8289999999999997</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="F12">
-        <v>49.77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+      <c r="K12">
+        <v>2.22024</v>
+      </c>
+      <c r="L12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>4.6280000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F13">
-        <v>49.970001000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="K13">
+        <v>2.0201600000000002</v>
+      </c>
+      <c r="L13">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <v>5.2050000000000001</v>
+        <v>-0.252</v>
       </c>
       <c r="F14">
-        <v>73.870002999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
-        <v>5.2569999999999997</v>
+        <v>-0.60299999999999998</v>
       </c>
       <c r="F15">
-        <v>74.169998000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
-        <v>4.9989999999999997</v>
+        <v>-0.83799999999999997</v>
       </c>
       <c r="F16">
-        <v>98.870002999999997</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17">
-        <v>4.9029999999999996</v>
+        <v>-0.96599999999999997</v>
       </c>
       <c r="F17">
-        <v>98.959998999999996</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>5.0389999999999997</v>
+        <v>-0.997</v>
       </c>
       <c r="F18">
-        <v>123.760002</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>4.92</v>
-      </c>
-      <c r="F19">
-        <v>148.61999499999999</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <v>4.4829999999999997</v>
-      </c>
-      <c r="F20">
-        <v>198.570007</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="F21">
-        <v>297.25</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22">
-        <v>3.88</v>
-      </c>
-      <c r="F22">
-        <v>317.26998900000001</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -6814,42 +7418,343 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649FC155-C6A5-A14E-8747-6C002BC6F258}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803EEAA3-A3E1-CF4A-ADE8-68220A086FFC}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>16.2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>209</v>
+      </c>
+      <c r="C2">
+        <v>77.233000000000004</v>
+      </c>
+      <c r="D2">
+        <v>13.0616</v>
+      </c>
+      <c r="E2">
+        <v>4.5490000000000004</v>
+      </c>
+      <c r="F2">
+        <v>4.07</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>13.002000000000001</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9.4730000000000008</v>
+      </c>
+      <c r="J2" s="9">
+        <v>78.572999999999993</v>
+      </c>
+      <c r="K2">
+        <v>4.0777000000000001</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>4.548</v>
+      </c>
+      <c r="F3">
+        <v>4.28</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3">
+        <v>4.1308999999999996</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>4.6470000000000002</v>
+      </c>
+      <c r="F4">
+        <v>10.19</v>
+      </c>
+      <c r="K4">
+        <v>3.0685699999999998</v>
+      </c>
+      <c r="L4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>4.59</v>
+      </c>
+      <c r="F5">
+        <v>10.15</v>
+      </c>
+      <c r="K5">
+        <v>2.9812099999999999</v>
+      </c>
+      <c r="L5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>4.7069999999999999</v>
+      </c>
+      <c r="F6">
+        <v>14.76</v>
+      </c>
+      <c r="K6">
+        <v>2.8670200000000001</v>
+      </c>
+      <c r="L6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="F7">
+        <v>14.72</v>
+      </c>
+      <c r="K7">
+        <v>2.6982400000000002</v>
+      </c>
+      <c r="L7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>4.7510000000000003</v>
+      </c>
+      <c r="F8">
+        <v>24.030000999999999</v>
+      </c>
+      <c r="K8">
+        <v>2.5682100000000001</v>
+      </c>
+      <c r="L8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="F9">
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>4.1680000000000001</v>
+      </c>
+      <c r="F10">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="F11">
+        <v>29.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>4.8289999999999997</v>
+      </c>
+      <c r="F12">
+        <v>49.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>4.6280000000000001</v>
+      </c>
+      <c r="F13">
+        <v>49.970001000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="F14">
+        <v>73.870002999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>5.2569999999999997</v>
+      </c>
+      <c r="F15">
+        <v>74.169998000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="F16">
+        <v>98.870002999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>4.9029999999999996</v>
+      </c>
+      <c r="F17">
+        <v>98.959998999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="F18">
+        <v>123.760002</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>4.92</v>
+      </c>
+      <c r="F19">
+        <v>148.61999499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="F20">
+        <v>198.570007</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="F21">
+        <v>297.25</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>3.88</v>
+      </c>
+      <c r="F22">
+        <v>317.26998900000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649FC155-C6A5-A14E-8747-6C002BC6F258}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>18</v>
       </c>
@@ -6874,8 +7779,20 @@
       <c r="H2">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="9">
+        <v>-19.55</v>
+      </c>
+      <c r="J2" s="9">
+        <v>62.917000000000002</v>
+      </c>
+      <c r="K2">
+        <v>4.2035299999999998</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
@@ -6900,8 +7817,14 @@
       <c r="H3">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>4.0982099999999999</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18</v>
       </c>
@@ -6926,8 +7849,14 @@
       <c r="H4">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>3.08365</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>18</v>
       </c>
@@ -6952,8 +7881,14 @@
       <c r="H5">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>3.03315</v>
+      </c>
+      <c r="L5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18</v>
       </c>
@@ -6978,8 +7913,14 @@
       <c r="H6">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>3.0364300000000002</v>
+      </c>
+      <c r="L6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>18</v>
       </c>
@@ -7004,8 +7945,14 @@
       <c r="H7">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>2.9085000000000001</v>
+      </c>
+      <c r="L7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18</v>
       </c>
@@ -7030,8 +7977,14 @@
       <c r="H8">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>2.2767599999999999</v>
+      </c>
+      <c r="L8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -7056,8 +8009,14 @@
       <c r="H9">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>2.1240899999999998</v>
+      </c>
+      <c r="L9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>18</v>
       </c>
@@ -7082,8 +8041,14 @@
       <c r="H10">
         <v>-17.766999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1.9416100000000001</v>
+      </c>
+      <c r="L10">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -7109,7 +8074,7 @@
         <v>-17.766999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -7135,7 +8100,7 @@
         <v>-17.766999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>18</v>
       </c>
@@ -11833,502 +12798,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDED5DFC-9EB9-FD4A-B09E-383232A20B94}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="215" zoomScaleNormal="354" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1333</v>
-      </c>
-      <c r="C3">
-        <v>42.022933330000001</v>
-      </c>
-      <c r="D3">
-        <v>-9.4943500000000007</v>
-      </c>
-      <c r="E3">
-        <f>360+D3</f>
-        <v>350.50565</v>
-      </c>
-      <c r="G3">
-        <v>-9.69</v>
-      </c>
-      <c r="H3">
-        <v>41.91</v>
-      </c>
-      <c r="I3">
-        <v>1387</v>
-      </c>
-      <c r="J3">
-        <v>2.29</v>
-      </c>
-      <c r="K3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L3">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1616</v>
-      </c>
-      <c r="C4">
-        <v>37.156550000000003</v>
-      </c>
-      <c r="D4">
-        <v>-24.592066670000001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E14" si="0">360+D4</f>
-        <v>335.40793332999999</v>
-      </c>
-      <c r="G4">
-        <v>-23.594000000000001</v>
-      </c>
-      <c r="H4">
-        <v>36.237000000000002</v>
-      </c>
-      <c r="I4">
-        <v>1604</v>
-      </c>
-      <c r="J4">
-        <v>1.84</v>
-      </c>
-      <c r="K4">
-        <v>19.285999</v>
-      </c>
-      <c r="L4">
-        <v>4.9588999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1664</v>
-      </c>
-      <c r="C5">
-        <v>40.934483329999999</v>
-      </c>
-      <c r="D5">
-        <v>-28.83935</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>331.16064999999998</v>
-      </c>
-      <c r="G5">
-        <v>-28.3</v>
-      </c>
-      <c r="H5">
-        <v>41.02</v>
-      </c>
-      <c r="I5">
-        <v>1777</v>
-      </c>
-      <c r="J5">
-        <v>1.73</v>
-      </c>
-      <c r="K5">
-        <v>17.684999000000001</v>
-      </c>
-      <c r="L5">
-        <v>3.7052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2296</v>
-      </c>
-      <c r="C6">
-        <v>49.144033329999999</v>
-      </c>
-      <c r="D6">
-        <v>-27.952333329999998</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>332.04766667000001</v>
-      </c>
-      <c r="G6">
-        <v>-27.864999999999998</v>
-      </c>
-      <c r="H6">
-        <v>49.3</v>
-      </c>
-      <c r="I6">
-        <v>2283</v>
-      </c>
-      <c r="J6">
-        <v>1.58</v>
-      </c>
-      <c r="K6">
-        <v>14.492000000000001</v>
-      </c>
-      <c r="L6">
-        <v>3.2126999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1877</v>
-      </c>
-      <c r="C7">
-        <v>57.033283330000003</v>
-      </c>
-      <c r="D7">
-        <v>-20.824000000000002</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>339.17599999999999</v>
-      </c>
-      <c r="G7">
-        <v>-20.622</v>
-      </c>
-      <c r="H7">
-        <v>57.563000000000002</v>
-      </c>
-      <c r="I7">
-        <v>1969</v>
-      </c>
-      <c r="J7">
-        <v>1.73</v>
-      </c>
-      <c r="K7">
-        <v>14.227</v>
-      </c>
-      <c r="L7">
-        <v>3.2665000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2730</v>
-      </c>
-      <c r="C8">
-        <v>59.753533330000003</v>
-      </c>
-      <c r="D8">
-        <v>-19.921533329999999</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>340.07846667000001</v>
-      </c>
-      <c r="G8">
-        <v>-19.997</v>
-      </c>
-      <c r="H8">
-        <v>59.497</v>
-      </c>
-      <c r="I8">
-        <v>2754</v>
-      </c>
-      <c r="J8">
-        <v>1.32</v>
-      </c>
-      <c r="K8">
-        <v>8.1466999999999992</v>
-      </c>
-      <c r="L8">
-        <v>2.6103000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="5">
-        <v>688</v>
-      </c>
-      <c r="C9">
-        <v>62.923333329999998</v>
-      </c>
-      <c r="D9">
-        <v>-6.9394333330000002</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>353.06056666699999</v>
-      </c>
-      <c r="G9">
-        <v>-7.8760000000000003</v>
-      </c>
-      <c r="H9">
-        <v>61.323999999999998</v>
-      </c>
-      <c r="I9">
-        <v>692</v>
-      </c>
-      <c r="J9">
-        <v>1.94</v>
-      </c>
-      <c r="K9">
-        <v>9.4960000000000004</v>
-      </c>
-      <c r="L9">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C10">
-        <v>64.954033330000001</v>
-      </c>
-      <c r="D10">
-        <v>0.79323333330000001</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>360.79323333330001</v>
-      </c>
-      <c r="G10">
-        <v>-3.3370000000000002</v>
-      </c>
-      <c r="H10">
-        <v>67.686999999999998</v>
-      </c>
-      <c r="I10">
-        <v>2780</v>
-      </c>
-      <c r="J10">
-        <v>1.32</v>
-      </c>
-      <c r="K10">
-        <v>4.835</v>
-      </c>
-      <c r="L10">
-        <v>-0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1060</v>
-      </c>
-      <c r="C11">
-        <v>67.006299999999996</v>
-      </c>
-      <c r="D11">
-        <v>7.6499333329999999</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>367.64993333299998</v>
-      </c>
-      <c r="G11">
-        <v>2.4830000000000001</v>
-      </c>
-      <c r="H11">
-        <v>69.997</v>
-      </c>
-      <c r="I11">
-        <v>1172</v>
-      </c>
-      <c r="J11">
-        <v>2.19</v>
-      </c>
-      <c r="K11">
-        <v>7.5140000000000002</v>
-      </c>
-      <c r="L11">
-        <v>-0.59150000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1132</v>
-      </c>
-      <c r="C12">
-        <v>76.856700000000004</v>
-      </c>
-      <c r="D12">
-        <v>12.198449999999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>372.19844999999998</v>
-      </c>
-      <c r="G12">
-        <v>8.8330000000000002</v>
-      </c>
-      <c r="H12">
-        <v>78.5</v>
-      </c>
-      <c r="I12">
-        <v>978</v>
-      </c>
-      <c r="J12">
-        <v>2.02</v>
-      </c>
-      <c r="K12">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="L12">
-        <v>-0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="5">
-        <v>209</v>
-      </c>
-      <c r="C13">
-        <v>77.233000000000004</v>
-      </c>
-      <c r="D13">
-        <v>13.0616</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>373.0616</v>
-      </c>
-      <c r="G13">
-        <v>9.4730000000000008</v>
-      </c>
-      <c r="H13">
-        <v>78.572999999999993</v>
-      </c>
-      <c r="I13">
-        <v>318</v>
-      </c>
-      <c r="J13">
-        <v>2.7</v>
-      </c>
-      <c r="K13">
-        <v>4.5490000000000004</v>
-      </c>
-      <c r="L13">
-        <v>4.4829999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="5">
-        <v>918</v>
-      </c>
-      <c r="C14">
-        <v>63.05391667</v>
-      </c>
-      <c r="D14">
-        <v>-18.556466669999999</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>341.44353332999998</v>
-      </c>
-      <c r="G14">
-        <v>-19.55</v>
-      </c>
-      <c r="H14">
-        <v>62.917000000000002</v>
-      </c>
-      <c r="I14">
-        <v>1002</v>
-      </c>
-      <c r="J14">
-        <v>2.12</v>
-      </c>
-      <c r="K14">
-        <v>11.433</v>
-      </c>
-      <c r="L14">
-        <v>4.1452</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70495C05-8594-564D-A95F-8248259FB2D3}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -12364,7 +12833,7 @@
         <v>182</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -12713,6 +13182,541 @@
       </c>
       <c r="I13">
         <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDED5DFC-9EB9-FD4A-B09E-383232A20B94}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="178" zoomScaleNormal="354" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1333</v>
+      </c>
+      <c r="C3">
+        <v>42.022933330000001</v>
+      </c>
+      <c r="D3">
+        <v>-9.4943500000000007</v>
+      </c>
+      <c r="E3">
+        <f>360+D3</f>
+        <v>350.50565</v>
+      </c>
+      <c r="G3">
+        <v>-9.69</v>
+      </c>
+      <c r="H3">
+        <v>41.91</v>
+      </c>
+      <c r="I3">
+        <v>1387</v>
+      </c>
+      <c r="J3">
+        <v>2.29</v>
+      </c>
+      <c r="K3">
+        <v>4.73367</v>
+      </c>
+      <c r="L3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1616</v>
+      </c>
+      <c r="C4">
+        <v>37.156550000000003</v>
+      </c>
+      <c r="D4">
+        <v>-24.592066670000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E14" si="0">360+D4</f>
+        <v>335.40793332999999</v>
+      </c>
+      <c r="G4">
+        <v>-23.594000000000001</v>
+      </c>
+      <c r="H4">
+        <v>36.237000000000002</v>
+      </c>
+      <c r="I4">
+        <v>1604</v>
+      </c>
+      <c r="J4">
+        <v>1.84</v>
+      </c>
+      <c r="K4">
+        <v>4.9098300000000004</v>
+      </c>
+      <c r="L4">
+        <v>19.285999</v>
+      </c>
+      <c r="M4">
+        <v>4.9588999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1664</v>
+      </c>
+      <c r="C5">
+        <v>40.934483329999999</v>
+      </c>
+      <c r="D5">
+        <v>-28.83935</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>331.16064999999998</v>
+      </c>
+      <c r="G5">
+        <v>-28.3</v>
+      </c>
+      <c r="H5">
+        <v>41.02</v>
+      </c>
+      <c r="I5">
+        <v>1777</v>
+      </c>
+      <c r="J5">
+        <v>1.73</v>
+      </c>
+      <c r="K5">
+        <v>4.7424099999999996</v>
+      </c>
+      <c r="L5">
+        <v>17.684999000000001</v>
+      </c>
+      <c r="M5">
+        <v>3.7052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2296</v>
+      </c>
+      <c r="C6">
+        <v>49.144033329999999</v>
+      </c>
+      <c r="D6">
+        <v>-27.952333329999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>332.04766667000001</v>
+      </c>
+      <c r="G6">
+        <v>-27.864999999999998</v>
+      </c>
+      <c r="H6">
+        <v>49.3</v>
+      </c>
+      <c r="I6">
+        <v>2283</v>
+      </c>
+      <c r="J6">
+        <v>1.58</v>
+      </c>
+      <c r="K6">
+        <v>5.0698400000000001</v>
+      </c>
+      <c r="L6">
+        <v>14.492000000000001</v>
+      </c>
+      <c r="M6">
+        <v>3.2126999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1877</v>
+      </c>
+      <c r="C7">
+        <v>57.033283330000003</v>
+      </c>
+      <c r="D7">
+        <v>-20.824000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>339.17599999999999</v>
+      </c>
+      <c r="G7">
+        <v>-20.622</v>
+      </c>
+      <c r="H7">
+        <v>57.563000000000002</v>
+      </c>
+      <c r="I7">
+        <v>1969</v>
+      </c>
+      <c r="J7">
+        <v>1.73</v>
+      </c>
+      <c r="K7">
+        <v>4.1907500000000004</v>
+      </c>
+      <c r="L7">
+        <v>14.227</v>
+      </c>
+      <c r="M7">
+        <v>3.2665000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2730</v>
+      </c>
+      <c r="C8">
+        <v>59.753533330000003</v>
+      </c>
+      <c r="D8">
+        <v>-19.921533329999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>340.07846667000001</v>
+      </c>
+      <c r="G8">
+        <v>-19.997</v>
+      </c>
+      <c r="H8">
+        <v>59.497</v>
+      </c>
+      <c r="I8">
+        <v>2754</v>
+      </c>
+      <c r="J8">
+        <v>1.32</v>
+      </c>
+      <c r="K8">
+        <v>4.0925700000000003</v>
+      </c>
+      <c r="L8">
+        <v>8.1466999999999992</v>
+      </c>
+      <c r="M8">
+        <v>2.6103000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="5">
+        <v>688</v>
+      </c>
+      <c r="C9">
+        <v>62.923333329999998</v>
+      </c>
+      <c r="D9">
+        <v>-6.9394333330000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>353.06056666699999</v>
+      </c>
+      <c r="G9">
+        <v>-7.8760000000000003</v>
+      </c>
+      <c r="H9">
+        <v>61.323999999999998</v>
+      </c>
+      <c r="I9">
+        <v>692</v>
+      </c>
+      <c r="J9">
+        <v>1.94</v>
+      </c>
+      <c r="K9">
+        <v>3.0931199999999999</v>
+      </c>
+      <c r="L9">
+        <v>9.4960000000000004</v>
+      </c>
+      <c r="M9">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C10">
+        <v>64.954033330000001</v>
+      </c>
+      <c r="D10">
+        <v>0.79323333330000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>360.79323333330001</v>
+      </c>
+      <c r="G10">
+        <v>-3.3370000000000002</v>
+      </c>
+      <c r="H10">
+        <v>67.686999999999998</v>
+      </c>
+      <c r="I10">
+        <v>2780</v>
+      </c>
+      <c r="J10">
+        <v>1.32</v>
+      </c>
+      <c r="K10">
+        <v>4.2640399999999996</v>
+      </c>
+      <c r="L10">
+        <v>4.835</v>
+      </c>
+      <c r="M10">
+        <v>-0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C11">
+        <v>67.006299999999996</v>
+      </c>
+      <c r="D11">
+        <v>7.6499333329999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>367.64993333299998</v>
+      </c>
+      <c r="G11">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="H11">
+        <v>69.997</v>
+      </c>
+      <c r="I11">
+        <v>1172</v>
+      </c>
+      <c r="J11">
+        <v>2.19</v>
+      </c>
+      <c r="K11">
+        <v>4.22553</v>
+      </c>
+      <c r="L11">
+        <v>7.5140000000000002</v>
+      </c>
+      <c r="M11">
+        <v>-0.59150000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1132</v>
+      </c>
+      <c r="C12">
+        <v>76.856700000000004</v>
+      </c>
+      <c r="D12">
+        <v>12.198449999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>372.19844999999998</v>
+      </c>
+      <c r="G12">
+        <v>8.8330000000000002</v>
+      </c>
+      <c r="H12">
+        <v>78.5</v>
+      </c>
+      <c r="I12">
+        <v>978</v>
+      </c>
+      <c r="J12">
+        <v>2.02</v>
+      </c>
+      <c r="K12">
+        <v>4.1460400000000002</v>
+      </c>
+      <c r="L12">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="M12">
+        <v>-0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="5">
+        <v>209</v>
+      </c>
+      <c r="C13">
+        <v>77.233000000000004</v>
+      </c>
+      <c r="D13">
+        <v>13.0616</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>373.0616</v>
+      </c>
+      <c r="G13">
+        <v>9.4730000000000008</v>
+      </c>
+      <c r="H13">
+        <v>78.572999999999993</v>
+      </c>
+      <c r="I13">
+        <v>318</v>
+      </c>
+      <c r="J13">
+        <v>2.7</v>
+      </c>
+      <c r="K13">
+        <v>4.0777000000000001</v>
+      </c>
+      <c r="L13">
+        <v>4.5490000000000004</v>
+      </c>
+      <c r="M13">
+        <v>4.4829999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="5">
+        <v>918</v>
+      </c>
+      <c r="C14">
+        <v>63.05391667</v>
+      </c>
+      <c r="D14">
+        <v>-18.556466669999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>341.44353332999998</v>
+      </c>
+      <c r="G14">
+        <v>-19.55</v>
+      </c>
+      <c r="H14">
+        <v>62.917000000000002</v>
+      </c>
+      <c r="I14">
+        <v>1002</v>
+      </c>
+      <c r="J14">
+        <v>2.12</v>
+      </c>
+      <c r="K14">
+        <v>4.2035299999999998</v>
+      </c>
+      <c r="L14">
+        <v>11.433</v>
+      </c>
+      <c r="M14">
+        <v>4.1452</v>
       </c>
     </row>
   </sheetData>
@@ -12721,249 +13725,271 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D897C-E40B-E24E-A310-29E695A17785}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807A242B-5F4F-9449-B247-BAD20B412584}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
       <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1333</v>
+      </c>
+      <c r="C2">
+        <v>42.022933330000001</v>
+      </c>
+      <c r="D2">
+        <v>-9.4943500000000007</v>
+      </c>
+      <c r="G2">
+        <v>41.91</v>
+      </c>
+      <c r="H2">
+        <v>-9.69</v>
+      </c>
+      <c r="I2">
+        <v>4.73367</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>4.7198399999999996</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>4.7124199999999998</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>4.6893900000000004</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>4.4617500000000003</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>4.3563900000000002</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>4.2831700000000001</v>
+      </c>
+      <c r="J8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>4.1152199999999999</v>
+      </c>
+      <c r="J9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>3.95147</v>
+      </c>
+      <c r="J10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>3.9219499999999998</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>3.8396699999999999</v>
+      </c>
+      <c r="J12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>3.7195299999999998</v>
+      </c>
+      <c r="J13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>3.6102400000000001</v>
+      </c>
+      <c r="J14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>3.60684</v>
+      </c>
+      <c r="J15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>3.5346700000000002</v>
+      </c>
+      <c r="J16">
         <v>189</v>
       </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1616</v>
-      </c>
-      <c r="C2">
-        <v>37.156550000000003</v>
-      </c>
-      <c r="D2">
-        <v>-24.592066670000001</v>
-      </c>
-      <c r="E2">
-        <v>19.285999</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>36.25</v>
-      </c>
-      <c r="H2">
-        <v>-24.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3">
-        <v>17.691998999999999</v>
-      </c>
-      <c r="F3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4">
-        <v>15.949</v>
-      </c>
-      <c r="F4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5">
-        <v>15.88</v>
-      </c>
-      <c r="F5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6">
-        <v>15.282</v>
-      </c>
-      <c r="F6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E7">
-        <v>13.974</v>
-      </c>
-      <c r="F7">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8">
-        <v>12.942</v>
-      </c>
-      <c r="F8">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9">
-        <v>11.525</v>
-      </c>
-      <c r="F9">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E10">
-        <v>11.525</v>
-      </c>
-      <c r="F10">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <v>10.436999999999999</v>
-      </c>
-      <c r="F11">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12">
-        <v>9.8962000000000003</v>
-      </c>
-      <c r="F12">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13">
-        <v>9.4189000000000007</v>
-      </c>
-      <c r="F13">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <v>9.3996999999999993</v>
-      </c>
-      <c r="F14">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <v>8.3878000000000004</v>
-      </c>
-      <c r="F15">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>6.0168999999999997</v>
-      </c>
-      <c r="F16">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <v>4.9588999999999999</v>
-      </c>
-      <c r="F17">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18">
-        <v>4.2282000000000002</v>
-      </c>
-      <c r="F18">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>3.5402</v>
-      </c>
-      <c r="F19">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <v>3.0339999999999998</v>
-      </c>
-      <c r="F20">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>2.7544</v>
-      </c>
-      <c r="F21">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22">
-        <v>2.7538999999999998</v>
-      </c>
-      <c r="F22">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23">
-        <v>2.6238999999999999</v>
-      </c>
-      <c r="F23">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24">
-        <v>2.6168</v>
-      </c>
-      <c r="F24">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25">
-        <v>2.6168</v>
-      </c>
-      <c r="F25">
-        <v>3676</v>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>3.3861599999999998</v>
+      </c>
+      <c r="J17">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>3.2567599999999999</v>
+      </c>
+      <c r="J18">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>3.17</v>
+      </c>
+      <c r="J19">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>2.9750999999999999</v>
+      </c>
+      <c r="J20">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>2.8557999999999999</v>
+      </c>
+      <c r="J21">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>2.8734000000000002</v>
+      </c>
+      <c r="J22">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>2.8181400000000001</v>
+      </c>
+      <c r="J23">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>2.6648999999999998</v>
+      </c>
+      <c r="J24">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>2.50285</v>
+      </c>
+      <c r="J25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>2.2948599999999999</v>
+      </c>
+      <c r="J26">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>2.0339399999999999</v>
+      </c>
+      <c r="J27">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -12972,233 +13998,381 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEF0BD8-77A5-854E-AEDE-8B33C566165D}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D897C-E40B-E24E-A310-29E695A17785}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="13">
-        <v>1664</v>
+        <v>1616</v>
       </c>
       <c r="C2">
-        <v>40.934483329999999</v>
+        <v>37.156550000000003</v>
       </c>
       <c r="D2">
-        <v>-28.83935</v>
+        <v>-24.592066670000001</v>
       </c>
       <c r="E2">
-        <v>17.684999000000001</v>
+        <v>19.285999</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>41.02</v>
+        <v>36.25</v>
       </c>
       <c r="H2">
-        <v>-28.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-24.93</v>
+      </c>
+      <c r="I2">
+        <v>36.237000000000002</v>
+      </c>
+      <c r="J2">
+        <v>-23.594000000000001</v>
+      </c>
+      <c r="K2">
+        <v>4.9098300000000004</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3">
-        <v>14.32</v>
+        <v>17.691998999999999</v>
       </c>
       <c r="F3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>4.7947699999999998</v>
+      </c>
+      <c r="L3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4">
-        <v>13.743</v>
+        <v>15.949</v>
       </c>
       <c r="F4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="K4">
+        <v>4.1773100000000003</v>
+      </c>
+      <c r="L4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E5">
-        <v>13.446999999999999</v>
+        <v>15.88</v>
       </c>
       <c r="F5">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <v>3.8055599999999998</v>
+      </c>
+      <c r="L5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6">
-        <v>12.888</v>
+        <v>15.282</v>
       </c>
       <c r="F6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="K6">
+        <v>3.4190100000000001</v>
+      </c>
+      <c r="L6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>12.395</v>
+        <v>13.974</v>
       </c>
       <c r="F7">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="K7">
+        <v>2.5288200000000001</v>
+      </c>
+      <c r="L7">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8">
-        <v>11.733000000000001</v>
+        <v>12.942</v>
       </c>
       <c r="F8">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="K8">
+        <v>2.51484</v>
+      </c>
+      <c r="L8">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9">
-        <v>10.978999999999999</v>
+        <v>11.525</v>
       </c>
       <c r="F9">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="K9">
+        <v>2.3141600000000002</v>
+      </c>
+      <c r="L9">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10">
-        <v>9.9809000000000001</v>
+        <v>11.525</v>
       </c>
       <c r="F10">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="K10">
+        <v>2.3612700000000002</v>
+      </c>
+      <c r="L10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
-        <v>9.3125999999999998</v>
+        <v>10.436999999999999</v>
       </c>
       <c r="F11">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+      <c r="K11">
+        <v>2.26505</v>
+      </c>
+      <c r="L11">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>8.4621999999999993</v>
+        <v>9.8962000000000003</v>
       </c>
       <c r="F12">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+      <c r="K12">
+        <v>2.03159</v>
+      </c>
+      <c r="L12">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>7.7096</v>
+        <v>9.4189000000000007</v>
       </c>
       <c r="F13">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+      <c r="K13">
+        <v>1.88859</v>
+      </c>
+      <c r="L13">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <v>6.9306999999999999</v>
+        <v>9.3996999999999993</v>
       </c>
       <c r="F14">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+      <c r="K14">
+        <v>1.8526400000000001</v>
+      </c>
+      <c r="L14">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
-        <v>6.1684999999999999</v>
+        <v>8.3878000000000004</v>
       </c>
       <c r="F15">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1104</v>
+      </c>
+      <c r="K15">
+        <v>1.7700400000000001</v>
+      </c>
+      <c r="L15">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
-        <v>4.6547999999999998</v>
+        <v>6.0168999999999997</v>
       </c>
       <c r="F16">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1304</v>
+      </c>
+      <c r="K16">
+        <v>1.6608000000000001</v>
+      </c>
+      <c r="L16">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
-        <v>3.7052</v>
+        <v>4.9588999999999999</v>
       </c>
       <c r="F17">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1604</v>
+      </c>
+      <c r="K17">
+        <v>1.60423</v>
+      </c>
+      <c r="L17">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>3.5444</v>
+        <v>4.2282000000000002</v>
       </c>
       <c r="F18">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1805</v>
+      </c>
+      <c r="K18">
+        <v>1.5000800000000001</v>
+      </c>
+      <c r="L18">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19">
-        <v>3.4129</v>
+        <v>3.5402</v>
       </c>
       <c r="F19">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+      <c r="K19">
+        <v>1.39923</v>
+      </c>
+      <c r="L19">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E20">
-        <v>3.3283999999999998</v>
+        <v>3.0339999999999998</v>
       </c>
       <c r="F20">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2505</v>
+      </c>
+      <c r="K20">
+        <v>1.3136099999999999</v>
+      </c>
+      <c r="L20">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21">
-        <v>3.2656999999999998</v>
+        <v>2.7544</v>
       </c>
       <c r="F21">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E22">
-        <v>3.2057000000000002</v>
+        <v>2.7538999999999998</v>
       </c>
       <c r="F22">
-        <v>2765</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E23">
-        <v>3.1972</v>
+        <v>2.6238999999999999</v>
       </c>
       <c r="F23">
-        <v>2810</v>
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>2.6168</v>
+      </c>
+      <c r="F24">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>2.6168</v>
+      </c>
+      <c r="F25">
+        <v>3676</v>
       </c>
     </row>
   </sheetData>
@@ -13207,241 +14381,377 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D24A52-9741-A748-83A7-F5E202E63BDB}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEF0BD8-77A5-854E-AEDE-8B33C566165D}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="13">
-        <v>2296</v>
+        <v>1664</v>
       </c>
       <c r="C2">
-        <v>49.144033329999999</v>
+        <v>40.934483329999999</v>
       </c>
       <c r="D2">
-        <v>-27.952333329999998</v>
+        <v>-28.83935</v>
       </c>
       <c r="E2">
-        <v>14.492000000000001</v>
+        <v>17.684999000000001</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>49.3</v>
+        <v>41.02</v>
       </c>
       <c r="H2">
-        <v>-27.864999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-28.3</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-28.3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>41.02</v>
+      </c>
+      <c r="K2">
+        <v>4.7424099999999996</v>
+      </c>
+      <c r="L2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3">
-        <v>14.927</v>
+        <v>14.32</v>
       </c>
       <c r="F3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K3">
+        <v>3.9537900000000001</v>
+      </c>
+      <c r="L3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4">
-        <v>13.249000000000001</v>
+        <v>13.743</v>
       </c>
       <c r="F4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>3.84422</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E5">
-        <v>12.673</v>
+        <v>13.446999999999999</v>
       </c>
       <c r="F5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="K5">
+        <v>3.72811</v>
+      </c>
+      <c r="L5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6">
-        <v>11.641999999999999</v>
+        <v>12.888</v>
       </c>
       <c r="F6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>3.6207400000000001</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>10.067</v>
+        <v>12.395</v>
       </c>
       <c r="F7">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="K7">
+        <v>3.4013</v>
+      </c>
+      <c r="L7">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8">
-        <v>7.6807999999999996</v>
+        <v>11.733000000000001</v>
       </c>
       <c r="F8">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="K8">
+        <v>3.01328</v>
+      </c>
+      <c r="L8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9">
-        <v>6.8457999999999997</v>
+        <v>10.978999999999999</v>
       </c>
       <c r="F9">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="K9">
+        <v>2.85853</v>
+      </c>
+      <c r="L9">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10">
-        <v>6.0099</v>
+        <v>9.9809000000000001</v>
       </c>
       <c r="F10">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+      <c r="K10">
+        <v>2.5746699999999998</v>
+      </c>
+      <c r="L10">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
-        <v>5.0827999999999998</v>
+        <v>9.3125999999999998</v>
       </c>
       <c r="F11">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+      <c r="K11">
+        <v>2.3965900000000002</v>
+      </c>
+      <c r="L11">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>4.7117000000000004</v>
+        <v>8.4621999999999993</v>
       </c>
       <c r="F12">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+      <c r="K12">
+        <v>2.2528000000000001</v>
+      </c>
+      <c r="L12">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>4.3127000000000004</v>
+        <v>7.7096</v>
       </c>
       <c r="F13">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+      <c r="K13">
+        <v>2.16967</v>
+      </c>
+      <c r="L13">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <v>4.0772000000000004</v>
+        <v>6.9306999999999999</v>
       </c>
       <c r="F14">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1087</v>
+      </c>
+      <c r="K14">
+        <v>2.0733700000000002</v>
+      </c>
+      <c r="L14">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
-        <v>3.8203999999999998</v>
+        <v>6.1684999999999999</v>
       </c>
       <c r="F15">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1189</v>
+      </c>
+      <c r="K15">
+        <v>1.95817</v>
+      </c>
+      <c r="L15">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
-        <v>3.6560999999999999</v>
+        <v>4.6547999999999998</v>
       </c>
       <c r="F16">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1387</v>
+      </c>
+      <c r="K16">
+        <v>1.9189099999999999</v>
+      </c>
+      <c r="L16">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
-        <v>3.5457000000000001</v>
+        <v>3.7052</v>
       </c>
       <c r="F17">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1777</v>
+      </c>
+      <c r="K17">
+        <v>1.72959</v>
+      </c>
+      <c r="L17">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>3.4228000000000001</v>
+        <v>3.5444</v>
       </c>
       <c r="F18">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1975</v>
+      </c>
+      <c r="K18">
+        <v>1.6869400000000001</v>
+      </c>
+      <c r="L18">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19">
-        <v>3.2544</v>
+        <v>3.4129</v>
       </c>
       <c r="F19">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2169</v>
+      </c>
+      <c r="K19">
+        <v>1.59978</v>
+      </c>
+      <c r="L19">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E20">
-        <v>3.2126999999999999</v>
+        <v>3.3283999999999998</v>
       </c>
       <c r="F20">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2367</v>
+      </c>
+      <c r="K20">
+        <v>1.54633</v>
+      </c>
+      <c r="L20">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21">
-        <v>3.1187</v>
+        <v>3.2656999999999998</v>
       </c>
       <c r="F21">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2566</v>
+      </c>
+      <c r="K21">
+        <v>1.427</v>
+      </c>
+      <c r="L21">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E22">
-        <v>3.0952999999999999</v>
+        <v>3.2057000000000002</v>
       </c>
       <c r="F22">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+        <v>2765</v>
+      </c>
+      <c r="K22">
+        <v>1.41276</v>
+      </c>
+      <c r="L22">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E23">
-        <v>3.0703</v>
+        <v>3.1972</v>
       </c>
       <c r="F23">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24">
-        <v>3.0701000000000001</v>
-      </c>
-      <c r="F24">
-        <v>3041</v>
+        <v>2810</v>
       </c>
     </row>
   </sheetData>
@@ -13450,201 +14760,379 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40B824-317F-244A-8CD1-3FA402633178}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D24A52-9741-A748-83A7-F5E202E63BDB}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2296</v>
+      </c>
+      <c r="C2">
+        <v>49.144033329999999</v>
+      </c>
+      <c r="D2">
+        <v>-27.952333329999998</v>
+      </c>
+      <c r="E2">
+        <v>14.492000000000001</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>49.3</v>
+      </c>
+      <c r="H2">
+        <v>-27.864999999999998</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-27.864999999999998</v>
+      </c>
+      <c r="J2" s="9">
+        <v>49.3</v>
+      </c>
+      <c r="K2">
+        <v>5.0698400000000001</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>14.927</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>3.8719700000000001</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>13.249000000000001</v>
+      </c>
+      <c r="F4">
+        <v>77</v>
+      </c>
+      <c r="K4">
+        <v>3.6077300000000001</v>
+      </c>
+      <c r="L4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>12.673</v>
+      </c>
+      <c r="F5">
+        <v>109</v>
+      </c>
+      <c r="K5">
+        <v>3.3304900000000002</v>
+      </c>
+      <c r="L5">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1877</v>
-      </c>
-      <c r="C2">
-        <v>57.033283330000003</v>
-      </c>
-      <c r="D2">
-        <v>-20.824000000000002</v>
-      </c>
-      <c r="E2">
-        <v>14.227</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>56.866999999999997</v>
-      </c>
-      <c r="H2">
-        <v>-21.032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3">
-        <v>11.321999999999999</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4">
-        <v>10.478999999999999</v>
-      </c>
-      <c r="F4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5">
-        <v>10.154999999999999</v>
-      </c>
-      <c r="F5">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6">
-        <v>10.048999999999999</v>
+        <v>11.641999999999999</v>
       </c>
       <c r="F6">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="K6">
+        <v>2.8565900000000002</v>
+      </c>
+      <c r="L6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>9.4652999999999992</v>
+        <v>10.067</v>
       </c>
       <c r="F7">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="K7">
+        <v>2.2823199999999999</v>
+      </c>
+      <c r="L7">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8">
-        <v>8.8886000000000003</v>
+        <v>7.6807999999999996</v>
       </c>
       <c r="F8">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="K8">
+        <v>2.1866599999999998</v>
+      </c>
+      <c r="L8">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9">
-        <v>7.9511000000000003</v>
+        <v>6.8457999999999997</v>
       </c>
       <c r="F9">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+      <c r="K9">
+        <v>2.1100500000000002</v>
+      </c>
+      <c r="L9">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10">
-        <v>7.1957000000000004</v>
+        <v>6.0099</v>
       </c>
       <c r="F10">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+      <c r="K10">
+        <v>2.0609799999999998</v>
+      </c>
+      <c r="L10">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
-        <v>6.0023999999999997</v>
+        <v>5.0827999999999998</v>
       </c>
       <c r="F11">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+      <c r="K11">
+        <v>2.0296099999999999</v>
+      </c>
+      <c r="L11">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>5.4409000000000001</v>
+        <v>4.7117000000000004</v>
       </c>
       <c r="F12">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1006</v>
+      </c>
+      <c r="K12">
+        <v>2.0158399999999999</v>
+      </c>
+      <c r="L12">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>5.4339000000000004</v>
+        <v>4.3127000000000004</v>
       </c>
       <c r="F13">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1124</v>
+      </c>
+      <c r="K13">
+        <v>1.9517</v>
+      </c>
+      <c r="L13">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <v>4.1452</v>
+        <v>4.0772000000000004</v>
       </c>
       <c r="F14">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1227</v>
+      </c>
+      <c r="K14">
+        <v>1.88626</v>
+      </c>
+      <c r="L14">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
-        <v>3.7195</v>
+        <v>3.8203999999999998</v>
       </c>
       <c r="F15">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1402</v>
+      </c>
+      <c r="K15">
+        <v>1.7842499999999999</v>
+      </c>
+      <c r="L15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
-        <v>3.3633999999999999</v>
+        <v>3.6560999999999999</v>
       </c>
       <c r="F16">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1597</v>
+      </c>
+      <c r="K16">
+        <v>1.7089700000000001</v>
+      </c>
+      <c r="L16">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
-        <v>3.3178000000000001</v>
+        <v>3.5457000000000001</v>
       </c>
       <c r="F17">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1687</v>
+      </c>
+      <c r="K17">
+        <v>1.69458</v>
+      </c>
+      <c r="L17">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>3.2665000000000002</v>
+        <v>3.4228000000000001</v>
       </c>
       <c r="F18">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1844</v>
+      </c>
+      <c r="K18">
+        <v>1.5798300000000001</v>
+      </c>
+      <c r="L18">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19">
-        <v>3.1749999999999998</v>
+        <v>3.2544</v>
       </c>
       <c r="F19">
-        <v>1906</v>
+        <v>2081</v>
+      </c>
+      <c r="K19">
+        <v>1.49773</v>
+      </c>
+      <c r="L19">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>3.2126999999999999</v>
+      </c>
+      <c r="F20">
+        <v>2283</v>
+      </c>
+      <c r="K20">
+        <v>1.3869899999999999</v>
+      </c>
+      <c r="L20">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>3.1187</v>
+      </c>
+      <c r="F21">
+        <v>2608</v>
+      </c>
+      <c r="K21">
+        <v>1.3539699999999999</v>
+      </c>
+      <c r="L21">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>3.0952999999999999</v>
+      </c>
+      <c r="F22">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>3.0703</v>
+      </c>
+      <c r="F23">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>3.0701000000000001</v>
+      </c>
+      <c r="F24">
+        <v>3041</v>
       </c>
     </row>
   </sheetData>
@@ -13653,241 +15141,321 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E8D0-F087-444F-B661-911C153BE102}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40B824-317F-244A-8CD1-3FA402633178}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="13">
-        <v>2730</v>
+        <v>1877</v>
       </c>
       <c r="C2">
-        <v>59.753533330000003</v>
+        <v>57.033283330000003</v>
       </c>
       <c r="D2">
-        <v>-19.921533329999999</v>
+        <v>-20.824000000000002</v>
       </c>
       <c r="E2">
-        <v>8.1466999999999992</v>
+        <v>14.227</v>
       </c>
       <c r="F2">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>59.982999999999997</v>
+        <v>56.866999999999997</v>
       </c>
       <c r="H2">
-        <v>-19.968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-21.032</v>
+      </c>
+      <c r="I2">
+        <v>-20.622</v>
+      </c>
+      <c r="J2">
+        <v>57.563000000000002</v>
+      </c>
+      <c r="K2">
+        <v>4.1907500000000004</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E3">
-        <v>8.1448</v>
+        <v>11.321999999999999</v>
       </c>
       <c r="F3">
-        <v>101.099998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>4.1454300000000002</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4">
-        <v>8.0808999999999997</v>
+        <v>10.478999999999999</v>
       </c>
       <c r="F4">
-        <v>201.10000600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="K4">
+        <v>3.3864399999999999</v>
+      </c>
+      <c r="L4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E5">
-        <v>7.7637999999999998</v>
+        <v>10.154999999999999</v>
       </c>
       <c r="F5">
-        <v>304.10000600000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="K5">
+        <v>3.1279499999999998</v>
+      </c>
+      <c r="L5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E6">
-        <v>7.7428999999999997</v>
+        <v>10.048999999999999</v>
       </c>
       <c r="F6">
-        <v>396.10000600000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="K6">
+        <v>2.96339</v>
+      </c>
+      <c r="L6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7">
-        <v>7.4185999999999996</v>
+        <v>9.4652999999999992</v>
       </c>
       <c r="F7">
-        <v>500.89999399999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+      <c r="K7">
+        <v>2.5758700000000001</v>
+      </c>
+      <c r="L7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E8">
-        <v>7.19</v>
+        <v>8.8886000000000003</v>
       </c>
       <c r="F8">
-        <v>703.59997599999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+      <c r="K8">
+        <v>2.5870299999999999</v>
+      </c>
+      <c r="L8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9">
-        <v>6.4664999999999999</v>
+        <v>7.9511000000000003</v>
       </c>
       <c r="F9">
-        <v>851.70001200000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+      <c r="K9">
+        <v>2.2985799999999998</v>
+      </c>
+      <c r="L9">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10">
-        <v>5.4884000000000004</v>
+        <v>7.1957000000000004</v>
       </c>
       <c r="F10">
-        <v>1002.700012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+      <c r="K10">
+        <v>2.3607300000000002</v>
+      </c>
+      <c r="L10">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
-        <v>4.78</v>
+        <v>6.0023999999999997</v>
       </c>
       <c r="F11">
-        <v>1151.599976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+      <c r="K11">
+        <v>2.22818</v>
+      </c>
+      <c r="L11">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12">
-        <v>4.2595000000000001</v>
+        <v>5.4409000000000001</v>
       </c>
       <c r="F12">
-        <v>1299.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>998</v>
+      </c>
+      <c r="K12">
+        <v>2.1200199999999998</v>
+      </c>
+      <c r="L12">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>3.9011999999999998</v>
+        <v>5.4339000000000004</v>
       </c>
       <c r="F13">
-        <v>1501.400024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1001</v>
+      </c>
+      <c r="K13">
+        <v>2.0723199999999999</v>
+      </c>
+      <c r="L13">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <v>3.5630000000000002</v>
+        <v>4.1452</v>
       </c>
       <c r="F14">
-        <v>1897.6999510000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1248</v>
+      </c>
+      <c r="K14">
+        <v>1.97542</v>
+      </c>
+      <c r="L14">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
-        <v>3.5455000000000001</v>
+        <v>3.7195</v>
       </c>
       <c r="F15">
-        <v>2002.8000489999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1499</v>
+      </c>
+      <c r="K15">
+        <v>1.8565499999999999</v>
+      </c>
+      <c r="L15">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
-        <v>3.5266999999999999</v>
+        <v>3.3633999999999999</v>
       </c>
       <c r="F16">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1753</v>
+      </c>
+      <c r="K16">
+        <v>1.78772</v>
+      </c>
+      <c r="L16">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
-        <v>3.4807999999999999</v>
+        <v>3.3178000000000001</v>
       </c>
       <c r="F17">
-        <v>2202.1000979999999</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1798</v>
+      </c>
+      <c r="K17">
+        <v>1.7343999999999999</v>
+      </c>
+      <c r="L17">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E18">
-        <v>3.3843999999999999</v>
+        <v>3.2665000000000002</v>
       </c>
       <c r="F18">
-        <v>2299.1999510000001</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+        <v>1851</v>
+      </c>
+      <c r="K18">
+        <v>1.6440600000000001</v>
+      </c>
+      <c r="L18">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19">
-        <v>3.2648000000000001</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="F19">
-        <v>2401.1999510000001</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <v>3.149</v>
-      </c>
-      <c r="F20">
-        <v>2511.8999020000001</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>2.9975000000000001</v>
-      </c>
-      <c r="F21">
-        <v>2563.8999020000001</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22">
-        <v>2.7932999999999999</v>
-      </c>
-      <c r="F22">
-        <v>2612.8000489999999</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23">
-        <v>2.6789000000000001</v>
-      </c>
-      <c r="F23">
-        <v>2660.8000489999999</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24">
-        <v>2.6103000000000001</v>
-      </c>
-      <c r="F24">
-        <v>2713.6999510000001</v>
+        <v>1906</v>
       </c>
     </row>
   </sheetData>
